--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2897076.873913783</v>
+        <v>3001256.508364855</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>75.4571321610379</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>80.48689361945965</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -719,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>100.5130655815913</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.1974974666514</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58.99649157474466</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>48.83141941632934</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>81.17400253769658</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>146.9083821604494</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167.5442597171374</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>46.42246812243116</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1291,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>135.259425062653</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>169.2299870234509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.11937003877918</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>140.1760114441845</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>114.5006452705937</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>109.1623230749906</v>
       </c>
     </row>
     <row r="20">
@@ -2239,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>115.4863975071912</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>134.339113733127</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2476,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>115.2302178375797</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>54.10799870228475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2555,16 +2557,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417104</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2719,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833856</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>49.33106662725162</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>73.57849775387122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>79.90816078628993</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>133.983849834638</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3317,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>71.05846343488126</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>180.4516856419262</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>62.14989839348819</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>32.84316668127781</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3946,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>100.5140508960355</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337068</v>
       </c>
       <c r="C46" t="n">
-        <v>105.8460632289448</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,13 +4330,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4355,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3244.305929064263</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3038.328181448485</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2784.797704722321</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2453.73481737875</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2453.73481737875</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>775.9977502341333</v>
+        <v>856.503009960934</v>
       </c>
       <c r="C4" t="n">
-        <v>607.0615673062264</v>
+        <v>856.503009960934</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>706.3863705485983</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>558.4732769662052</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>411.5833294682948</v>
       </c>
       <c r="G4" t="n">
         <v>310.0549803959803</v>
@@ -4489,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.60866391532</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1514.197050312641</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1514.197050312641</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V4" t="n">
-        <v>1514.197050312641</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W4" t="n">
-        <v>1224.779880275681</v>
+        <v>1258.944053934704</v>
       </c>
       <c r="X4" t="n">
-        <v>996.7903293776634</v>
+        <v>1258.944053934704</v>
       </c>
       <c r="Y4" t="n">
-        <v>775.9977502341333</v>
+        <v>1038.151474791174</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1681.836054204829</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1312.873537264417</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>954.6078386576669</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>568.8195860594226</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>157.833681269815</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4580,37 +4582,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189674</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213862</v>
+        <v>1681.836054204829</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4668,16 +4670,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4691,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214.4252100145765</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1845.300606131224</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1845.300606131224</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1556.197739256867</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1301.51325105098</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1012.09608101402</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>784.1065301160024</v>
       </c>
       <c r="Y7" t="n">
-        <v>214.4252100145765</v>
+        <v>563.3139509724723</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1279.042352470408</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866152</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2862.546497866152</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y8" t="n">
-        <v>2472.40716589034</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.322087337517</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>527.322087337517</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1790.668866207025</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1790.668866207025</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="X10" t="n">
-        <v>879.9099329995254</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y10" t="n">
-        <v>708.9705521677568</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5018,13 +5020,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2389.15589967238</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>641.8461362382112</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>472.9099533103043</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>322.7933138979686</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5367,13 +5369,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532263</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1835.869149758807</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1581.18466155292</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5501,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612593</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.2946447138415</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3584617859347</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>747.3584617859347</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138415</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
@@ -5747,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5762,7 +5764,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3167.361685286662</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C22" t="n">
-        <v>2998.425502358755</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>2998.425502358755</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>2850.512408776362</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>2703.622461278451</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>2536.426361993331</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>3388.154264430192</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>3167.361685286662</v>
+        <v>847.644273983533</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3210.485548300425</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>3678.660617711126</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3175.341129796739</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>3006.404946868832</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D25" t="n">
-        <v>2856.288307456496</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874103</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018135</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.426268812248</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>3805.771724668526</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>3577.782173770509</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>3356.989594626978</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913445</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L27" t="n">
-        <v>2876.560776129204</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="M27" t="n">
-        <v>3473.939263755756</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N27" t="n">
-        <v>4101.537227310362</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>4101.537227310362</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3118.73869457197</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>2949.802511644063</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>2799.685872231727</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>2651.772778649334</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F28" t="n">
-        <v>2504.882831151423</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673936</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018134</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812247</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775286</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3521.179738545739</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>3300.387159402209</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1022.872235754091</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>853.936052826184</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W31" t="n">
-        <v>1653.302830625878</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X31" t="n">
-        <v>1425.313279727861</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.520700584331</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6692,22 +6694,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6716,10 +6718,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2716.927329289434</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>3212.252935505192</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>3241.424143276705</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N33" t="n">
-        <v>3869.022106831312</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>4420.931837070599</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>945.402603663004</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>776.4664207350971</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>626.3497813227614</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>478.4366877403683</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>478.4366877403683</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>311.2405884552482</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6929,19 +6931,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6953,16 +6955,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1022.530292372932</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C37" t="n">
-        <v>853.5941094450255</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D37" t="n">
-        <v>703.4774700326898</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487567</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.37805728168</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1652.96088724472</v>
+        <v>1318.472639455077</v>
       </c>
       <c r="X37" t="n">
-        <v>1424.971336346702</v>
+        <v>1090.48308855706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.178757203172</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
     <row r="38">
@@ -7211,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,22 +7256,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>315.9123021921482</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556945</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D40" t="n">
-        <v>415.5933575433587</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7375,7 +7377,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7394,25 +7396,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7451,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>3051.062654156519</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3051.062654156519</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3678.660617711126</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950413</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445481</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356195</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1332.172021309389</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1332.172021309389</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.379442165859</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7627,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,37 +7660,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>2726.91413360155</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M45" t="n">
-        <v>3324.292621228102</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>3951.890584782709</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>4503.800315021996</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.8431516380886</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.7126101431581</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>105.0969227051396</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>146.0084629450596</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>31.93331737597549</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23941,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>109.4223302771042</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>24.80831533903265</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>84.24553961896774</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>31.20374480898943</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>232.4149996343062</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823061</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>176.3785887617855</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>75.03697526434114</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24886,22 +24888,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>172.2294825375381</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.310863011585866</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>75.37549921168791</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>106.0713126946648</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>113.5907959652914</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>102.889702261794</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>186.0089474405555</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="C46" t="n">
-        <v>61.40075786968302</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365053</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365058</v>
@@ -26338,22 +26340,22 @@
         <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="O2" t="n">
-        <v>686074.6097365058</v>
-      </c>
       <c r="P2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365061</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551168</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314476</v>
+        <v>90354.06702314474</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.06702314473</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179352</v>
@@ -26439,13 +26441,13 @@
         <v>11167.03225179352</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179359</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26457,7 +26459,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-829147.2489274901</v>
+        <v>-829147.2489274899</v>
       </c>
       <c r="C6" t="n">
+        <v>499597.4968001026</v>
+      </c>
+      <c r="D6" t="n">
         <v>499597.4968001031</v>
       </c>
-      <c r="D6" t="n">
-        <v>499597.4968001026</v>
-      </c>
       <c r="E6" t="n">
-        <v>248372.5858534494</v>
+        <v>248372.5858534495</v>
       </c>
       <c r="F6" t="n">
-        <v>573785.0476608048</v>
+        <v>573785.0476608053</v>
       </c>
       <c r="G6" t="n">
         <v>573785.0476608049</v>
       </c>
       <c r="H6" t="n">
+        <v>573785.0476608051</v>
+      </c>
+      <c r="I6" t="n">
+        <v>573785.0476608052</v>
+      </c>
+      <c r="J6" t="n">
+        <v>356253.8452635272</v>
+      </c>
+      <c r="K6" t="n">
         <v>573785.0476608053</v>
-      </c>
-      <c r="I6" t="n">
-        <v>573785.0476608053</v>
-      </c>
-      <c r="J6" t="n">
-        <v>356253.8452635274</v>
-      </c>
-      <c r="K6" t="n">
-        <v>573785.0476608051</v>
       </c>
       <c r="L6" t="n">
         <v>573785.0476608051</v>
       </c>
       <c r="M6" t="n">
-        <v>488730.0197252934</v>
+        <v>488730.0197252932</v>
       </c>
       <c r="N6" t="n">
+        <v>573785.0476608048</v>
+      </c>
+      <c r="O6" t="n">
         <v>573785.0476608049</v>
       </c>
-      <c r="O6" t="n">
-        <v>573785.0476608052</v>
-      </c>
       <c r="P6" t="n">
-        <v>573785.0476608049</v>
+        <v>573785.0476608054</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="C3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,19 +26792,19 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>289.8157596099696</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.70086816871618</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>65.51274267743689</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0.351451809517755</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>323.7373500887359</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>362.0903062371241</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27791,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>108.5950227937453</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>71.67627119164536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>215.1895819463432</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>308.2605734982518</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>150.9524131429599</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>49.35466632864384</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>305.542772458138</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31996,34 +31998,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663277</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>558.3177848342784</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32233,34 +32235,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N18" t="n">
-        <v>558.3177848342784</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,31 +32551,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>592.1874941409601</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>602.8420149078237</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>604.2458225991924</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968497</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>493.6049778318539</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>171.5999003578894</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>409.0029787211721</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33974,25 +33976,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>211.0222436375122</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34214,22 +34216,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>476.0648089385462</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>198.560797075695</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.5609983721165</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>426.9760727509451</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N18" t="n">
-        <v>426.9760727509451</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>453.6331143610859</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>472.904110515859</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748314</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>359.6305704175236</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>29.46586643587111</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>266.8689447991538</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37622,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>73.18080466315317</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37862,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>337.510429158672</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3001256.508364855</v>
+        <v>2997243.898350863</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>232.8521789952008</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>80.48689361945965</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>100.5130655815913</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>43.98226791336641</v>
       </c>
       <c r="G5" t="n">
-        <v>48.83141941632934</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>27.00971856836595</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>81.17400253769658</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>46.42246812243116</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>177.2979137777586</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>82.70057996958639</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>135.259425062653</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>41.33703994142957</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>70.04554881124324</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1581,10 +1581,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>109.1623230749906</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>175.8628696806976</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>134.339113733127</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>115.2302178375797</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>99.97427419833856</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>196.786745426035</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3009,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>79.90816078628993</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>63.16281301712667</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>180.4516856419262</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.14989839348819</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>42.5313457611372</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.3722917337068</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="F2" t="n">
         <v>523.5814653477182</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3244.305929064263</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3038.328181448485</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2784.797704722321</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2453.73481737875</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2453.73481737875</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>2080.269059117671</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y2" t="n">
-        <v>1690.129727141859</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="3">
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>856.503009960934</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>856.503009960934</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>706.3863705485983</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>558.4732769662052</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>411.5833294682948</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1548.361223971664</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>1258.944053934704</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1258.944053934704</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>1038.151474791174</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204829</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C5" t="n">
-        <v>1312.873537264417</v>
+        <v>926.2736972002933</v>
       </c>
       <c r="D5" t="n">
-        <v>954.6078386576669</v>
+        <v>568.0079985935429</v>
       </c>
       <c r="E5" t="n">
-        <v>568.8195860594226</v>
+        <v>568.0079985935429</v>
       </c>
       <c r="F5" t="n">
-        <v>157.833681269815</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4564,10 +4564,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180641</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180641</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204829</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,46 +4652,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>381.6654861422326</v>
+        <v>1021.570547268603</v>
       </c>
       <c r="C7" t="n">
-        <v>212.7293032143257</v>
+        <v>852.6343643406964</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143257</v>
+        <v>702.5177249283606</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143257</v>
+        <v>554.6046313459675</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>407.7146838480571</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>240.0118472227761</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>93.79466044063386</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.300606131224</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1845.300606131224</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1556.197739256867</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1301.51325105098</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W7" t="n">
-        <v>1012.09608101402</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X7" t="n">
-        <v>784.1065301160024</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="Y7" t="n">
-        <v>563.3139509724723</v>
+        <v>1203.219012098843</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1648.00486941082</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C8" t="n">
-        <v>1279.042352470408</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>287.5978169884305</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450753</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y8" t="n">
-        <v>2034.604709474942</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4959,7 +4959,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1790.668866207025</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1790.668866207025</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1501.251696170064</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>1273.262145272047</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5071,7 +5071,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D13" t="n">
-        <v>526.5658826424041</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="14">
@@ -5269,22 +5269,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
         <v>402.7245934908939</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,16 +5512,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.987318831765</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1618.570148794804</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1390.580597896787</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5740,46 +5740,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>847.644273983533</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2019.423283183833</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1730.34805652803</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y22" t="n">
-        <v>847.644273983533</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>580.8993044876693</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>580.8993044876693</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,43 +6220,43 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468472</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998291</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2248.188593250933</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429802</v>
@@ -6615,10 +6615,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6657,16 +6657,16 @@
         <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1790.525374274257</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1501.108204237296</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6697,19 +6697,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6724,25 +6724,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1318.472639455077</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1090.48308855706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>869.6905094135296</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7396,25 +7396,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7502,16 +7502,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7627,25 +7627,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111716</v>
@@ -7672,25 +7672,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7733,22 +7733,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>105.0969227051396</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>75.37549921168801</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>109.4223302771042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>41.54258064659064</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>84.24553961896774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>31.20374480898943</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>46.45968844823061</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>20.6187049012533</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>172.2294825375381</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>116.6691671648106</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>106.0713126946648</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>102.889702261794</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.45968844823051</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365054</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365061</v>
+        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>2.07046923605958e-10</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>2.967965428979369e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551168</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314474</v>
+        <v>90354.06702314485</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314473</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26435,10 +26435,10 @@
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179346</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
@@ -26459,7 +26459,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-829147.2489274899</v>
+        <v>-829147.2489274897</v>
       </c>
       <c r="C6" t="n">
         <v>499597.4968001026</v>
       </c>
       <c r="D6" t="n">
-        <v>499597.4968001031</v>
+        <v>499597.4968001028</v>
       </c>
       <c r="E6" t="n">
-        <v>248372.5858534495</v>
+        <v>248025.2065990927</v>
       </c>
       <c r="F6" t="n">
-        <v>573785.0476608053</v>
+        <v>573437.6684064482</v>
       </c>
       <c r="G6" t="n">
-        <v>573785.0476608049</v>
+        <v>573437.6684064481</v>
       </c>
       <c r="H6" t="n">
-        <v>573785.0476608051</v>
+        <v>573437.6684064475</v>
       </c>
       <c r="I6" t="n">
-        <v>573785.0476608052</v>
+        <v>573437.6684064482</v>
       </c>
       <c r="J6" t="n">
-        <v>356253.8452635272</v>
+        <v>355906.4660091707</v>
       </c>
       <c r="K6" t="n">
-        <v>573785.0476608053</v>
+        <v>573437.6684064481</v>
       </c>
       <c r="L6" t="n">
-        <v>573785.0476608051</v>
+        <v>573437.6684064481</v>
       </c>
       <c r="M6" t="n">
-        <v>488730.0197252932</v>
+        <v>488382.6404709366</v>
       </c>
       <c r="N6" t="n">
-        <v>573785.0476608048</v>
+        <v>573437.668406448</v>
       </c>
       <c r="O6" t="n">
-        <v>573785.0476608049</v>
+        <v>573437.668406448</v>
       </c>
       <c r="P6" t="n">
-        <v>573785.0476608054</v>
+        <v>573437.6684064482</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,19 +26807,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>174.0238667465106</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.70086816871618</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>65.51274267743689</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,16 +27593,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>362.893777828345</v>
       </c>
       <c r="G5" t="n">
-        <v>362.0903062371241</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>69.34270184147213</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>108.5950227937453</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>308.2605734982518</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>117.3098506095619</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9524131429599</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-2.160049916710705e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>322.6999460717714</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32235,7 +32235,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
         <v>699.5441750817575</v>
@@ -32311,34 +32311,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,34 +32548,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>602.8420149078237</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>333.9544784328822</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,22 +33031,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>282.8216163968497</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,16 +33259,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33496,31 +33496,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>198.560797075695</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>191.358233988438</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>471.5003028244903</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>191.3582339884378</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,13 +36591,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367775</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
         <v>632.079992146269</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>140.6875824748314</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>55.96455263125056</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2997243.898350863</v>
+        <v>2999004.428653647</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>300.436786812672</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>232.8521789952008</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>157.7822070347168</v>
+        <v>186.5978350553695</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>43.98226791336641</v>
+        <v>297.9986308222602</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>27.00971856836595</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="H8" t="n">
-        <v>177.2979137777586</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>82.70057996958639</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>70.04554881124324</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1663,10 +1663,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444142</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569554</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576182</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>92.41552299048899</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>175.8628696806976</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>177.696569780335</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>196.786745426035</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>42.53134576113725</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>18.70843787977307</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>63.16281301712667</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1127.748203495403</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C2" t="n">
-        <v>758.7856865549918</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>758.7856865549918</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>758.7856865549918</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
         <v>523.5814653477182</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535337</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559525</v>
+        <v>1624.638712032429</v>
       </c>
     </row>
     <row r="3">
@@ -4403,10 +4403,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4476,16 +4476,16 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4515,22 +4515,22 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V4" t="n">
-        <v>1767.918581386758</v>
+        <v>1547.126002243228</v>
       </c>
       <c r="W4" t="n">
-        <v>1478.501411349798</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y4" t="n">
         <v>1029.71928130825</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1295.236214140705</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C5" t="n">
-        <v>926.2736972002933</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D5" t="n">
-        <v>568.0079985935429</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="E5" t="n">
-        <v>568.0079985935429</v>
+        <v>378.5528805490658</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204827</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1021.570547268603</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>852.6343643406964</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>702.5177249283606</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>554.6046313459675</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>407.7146838480571</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>240.0118472227761</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>93.79466044063386</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1424.011591242373</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1424.011591242373</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1203.219012098843</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038044</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.669719097632</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.404020490882</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E8" t="n">
-        <v>709.6157678926375</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F8" t="n">
-        <v>298.6298631030299</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G8" t="n">
-        <v>287.5978169884305</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912092</v>
@@ -4816,16 +4816,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4843,13 +4843,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077977</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102166</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5026,13 +5026,13 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5041,25 +5041,25 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5071,7 +5071,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5135,13 +5135,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1022.530292372932</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>853.5941094450255</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>703.4774700326898</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>555.5643764502967</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487567</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1942.37805728168</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1652.96088724472</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1424.971336346702</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1204.178757203172</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,22 +5360,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362691</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,37 +5731,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5770,31 +5770,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>555.8158034133954</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>583.3384263047948</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>583.3384263047948</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>436.4484788068844</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797191</v>
+        <v>269.2523795217643</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2019.423283183833</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>1730.34805652803</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1475.663568322143</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1186.246398285183</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X22" t="n">
-        <v>958.2568473871653</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>737.4642682436352</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="23">
@@ -5971,58 +5971,58 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6080,7 +6080,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,55 +6220,55 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>784.5811134804959</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C28" t="n">
-        <v>615.644930552589</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2248.188593250933</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1959.113366595131</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V28" t="n">
-        <v>1704.428878389244</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W28" t="n">
-        <v>1415.011708352283</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>1187.022157454266</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y28" t="n">
-        <v>966.2295783107356</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6928,37 +6928,37 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7086,7 +7086,7 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7162,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7405,22 +7405,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7429,34 +7429,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>75.37549921168801</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>24.63391537253406</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>47.87918985573486</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>41.54258064659064</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>39.70888054695322</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.9259388694754875</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>20.6187049012533</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>106.0841272570751</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>116.6691671648106</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="16">
@@ -26316,28 +26316,28 @@
         <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.5043846411</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.504384641</v>
       </c>
-      <c r="D2" t="n">
-        <v>697885.5043846408</v>
-      </c>
       <c r="E2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="G2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="H2" t="n">
-        <v>686074.6097365054</v>
-      </c>
       <c r="I2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365058</v>
@@ -26346,16 +26346,16 @@
         <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.247716154048458e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>2.967965428979369e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314485</v>
+        <v>90354.06702314487</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.0322517936</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="J4" t="n">
         <v>11167.03225179347</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
@@ -26456,7 +26456,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-829147.2489274897</v>
+        <v>-829147.2489274896</v>
       </c>
       <c r="C6" t="n">
-        <v>499597.4968001026</v>
+        <v>499597.4968001028</v>
       </c>
       <c r="D6" t="n">
-        <v>499597.4968001028</v>
+        <v>499597.4968001029</v>
       </c>
       <c r="E6" t="n">
-        <v>248025.2065990927</v>
+        <v>248337.8479280137</v>
       </c>
       <c r="F6" t="n">
-        <v>573437.6684064482</v>
+        <v>573750.3097353699</v>
       </c>
       <c r="G6" t="n">
-        <v>573437.6684064481</v>
+        <v>573750.3097353692</v>
       </c>
       <c r="H6" t="n">
-        <v>573437.6684064475</v>
+        <v>573750.3097353694</v>
       </c>
       <c r="I6" t="n">
-        <v>573437.6684064482</v>
+        <v>573750.3097353694</v>
       </c>
       <c r="J6" t="n">
-        <v>355906.4660091707</v>
+        <v>356219.1073380918</v>
       </c>
       <c r="K6" t="n">
-        <v>573437.6684064481</v>
+        <v>573750.3097353694</v>
       </c>
       <c r="L6" t="n">
-        <v>573437.6684064481</v>
+        <v>573750.3097353694</v>
       </c>
       <c r="M6" t="n">
-        <v>488382.6404709366</v>
+        <v>488695.2817998574</v>
       </c>
       <c r="N6" t="n">
-        <v>573437.668406448</v>
+        <v>573750.3097353694</v>
       </c>
       <c r="O6" t="n">
-        <v>573437.668406448</v>
+        <v>573750.3097353694</v>
       </c>
       <c r="P6" t="n">
-        <v>573437.6684064482</v>
+        <v>573750.3097353693</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973555</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022922</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>64.83610495833551</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>174.0238667465106</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -27587,7 +27587,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>94.35543628911122</v>
+        <v>65.53980826845847</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>362.893777828345</v>
+        <v>108.8774149194513</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>69.34270184147213</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="H8" t="n">
-        <v>117.3098506095619</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>83.32522828944184</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,10 +28140,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.168883636114776e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28155,10 +28155,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -30468,7 +30468,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>429.5828357723605</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>295.6084283580303</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
